--- a/Excel/System_Money.xlsx
+++ b/Excel/System_Money.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -401,13 +401,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D880"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.13"/>
@@ -1820,11 +1820,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,821 +2498,974 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="5"/>
+      <c r="C2" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">SUM(B2:B150)</f>
+      <c r="E2" s="4" t="n">
+        <f aca="false">SUM(C2:C150)</f>
         <v>325000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="n">
         <v>250000</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="n">
         <v>25000</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="5"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="5"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="5"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="5"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="5"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="5"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="5"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="5"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="5"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="5"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="5"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="5"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="5"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="5"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="5"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="5"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="5"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="5"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="5"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="5"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="5"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="5"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="5"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="6"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="5"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="6"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="5"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="6"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="5"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="5"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="6"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="5"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="5"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="5"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="5"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="6"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="5"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="5"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="6"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="5"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="6"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="5"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="6"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="5"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="6"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="5"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="6"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="5"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="6"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="5"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="6"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="5"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="6"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="5"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="6"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="5"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="6"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="5"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="6"/>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="5"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="6"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="5"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="6"/>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="5"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="6"/>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="5"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="6"/>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="5"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="6"/>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="5"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="6"/>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="5"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="6"/>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="5"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="6"/>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="5"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="6"/>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="5"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="6"/>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="5"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="6"/>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="5"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="6"/>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="5"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="6"/>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="5"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="6"/>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="5"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="6"/>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="5"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="6"/>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="5"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="6"/>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="5"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="6"/>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="5"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="6"/>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="5"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="6"/>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="5"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="6"/>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="5"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="6"/>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="5"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="6"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="5"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="6"/>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="5"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="6"/>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="5"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="6"/>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="5"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="6"/>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="5"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="6"/>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="5"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="6"/>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="5"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="6"/>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="5"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="6"/>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="5"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="6"/>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="5"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="6"/>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="5"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="6"/>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="5"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="6"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="5"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="6"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="5"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="6"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="5"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="6"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="5"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="6"/>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="5"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="6"/>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="5"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="6"/>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="5"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="6"/>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="5"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="6"/>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="5"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="6"/>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="5"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="6"/>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="5"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="6"/>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="5"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="6"/>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="5"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="6"/>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="5"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="6"/>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="5"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="6"/>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="5"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="6"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2:A150" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2:B150" type="list">
       <formula1>blocks!$A$2:$A$31</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3332,13 +3485,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="7.63"/>
@@ -4448,7 +4601,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4474,7 +4627,7 @@
         <v>200000</v>
       </c>
       <c r="C2" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A2, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A2, expend!$C$2:$C$150 )</f>
         <v>270000</v>
       </c>
       <c r="D2" s="11" t="n">
@@ -4492,7 +4645,7 @@
         <v>100000</v>
       </c>
       <c r="C3" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A3, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A3, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D3" s="11" t="n">
@@ -4510,7 +4663,7 @@
         <v>30000</v>
       </c>
       <c r="C4" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A4, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A4, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D4" s="11" t="n">
@@ -4528,7 +4681,7 @@
         <v>50000</v>
       </c>
       <c r="C5" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A5, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A5, expend!$C$2:$C$150 )</f>
         <v>45000</v>
       </c>
       <c r="D5" s="11" t="n">
@@ -4546,7 +4699,7 @@
         <v>40000</v>
       </c>
       <c r="C6" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A6, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A6, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D6" s="11" t="n">
@@ -4564,7 +4717,7 @@
         <v>50000</v>
       </c>
       <c r="C7" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A7, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A7, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D7" s="11" t="n">
@@ -4582,7 +4735,7 @@
         <v>1400000</v>
       </c>
       <c r="C8" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A8, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A8, expend!$C$2:$C$150 )</f>
         <v>10000</v>
       </c>
       <c r="D8" s="11" t="n">
@@ -4600,7 +4753,7 @@
         <v>500000</v>
       </c>
       <c r="C9" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A9, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A9, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D9" s="11" t="n">
@@ -4618,7 +4771,7 @@
         <v>30000</v>
       </c>
       <c r="C10" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A10, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A10, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D10" s="11" t="n">
@@ -4636,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A11, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A11, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D11" s="11" t="n">
@@ -4654,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A12, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A12, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D12" s="11" t="n">
@@ -4672,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A13, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A13, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D13" s="11" t="n">
@@ -4690,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A14, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A14, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D14" s="11" t="n">
@@ -4708,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A15, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A15, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D15" s="11" t="n">
@@ -4726,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A16, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A16, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D16" s="11" t="n">
@@ -4744,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A17, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A17, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D17" s="11" t="n">
@@ -4762,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A18, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A18, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D18" s="11" t="n">
@@ -4780,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A19, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A19, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D19" s="11" t="n">
@@ -4798,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A20, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A20, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D20" s="11" t="n">
@@ -4816,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A21, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A21, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D21" s="11" t="n">
@@ -4834,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A22, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A22, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D22" s="11" t="n">
@@ -4852,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A23, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A23, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D23" s="11" t="n">
@@ -4870,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A24, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A24, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D24" s="11" t="n">
@@ -4888,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A25, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A25, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D25" s="11" t="n">
@@ -4906,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A26, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A26, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D26" s="11" t="n">
@@ -4924,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A27, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A27, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D27" s="11" t="n">
@@ -4942,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A28, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A28, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D28" s="11" t="n">
@@ -4960,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A29, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A29, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D29" s="11" t="n">
@@ -4978,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A30, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A30, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D30" s="11" t="n">
@@ -4996,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="11" t="n">
-        <f aca="false">SUMIF(expend!$A$2:$A$150, A31, expend!$B$2:$B$150 )</f>
+        <f aca="false">SUMIF(expend!$A$2:$A$150, A31, expend!$C$2:$C$150 )</f>
         <v>0</v>
       </c>
       <c r="D31" s="11" t="n">

--- a/Excel/System_Money.xlsx
+++ b/Excel/System_Money.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="repository" sheetId="1" state="visible" r:id="rId2"/>
@@ -455,13 +455,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.13"/>
@@ -1995,11 +1995,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2016,13 +2016,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.38"/>
@@ -3605,13 +3605,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.38"/>
@@ -3674,7 +3674,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>100000</v>
@@ -3687,49 +3687,49 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
@@ -5431,13 +5431,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A221"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="7.63"/>
@@ -6542,13 +6542,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="8" style="0" width="14.38"/>
   </cols>
